--- a/bnz_acct_mapping.xlsx
+++ b/bnz_acct_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\mc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6F4D47-C25C-4E16-9074-45E3663B8DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E60AEB-E727-46D0-AF83-1CD9D3DCD473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{D6019888-9603-4F6A-96FF-F1CC67ED96DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{D6019888-9603-4F6A-96FF-F1CC67ED96DA}"/>
   </bookViews>
   <sheets>
     <sheet name="gl_data" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,31 @@
     <sheet name="rs2_gl_acct_pivot" sheetId="3" r:id="rId3"/>
     <sheet name="rs2_gl_acct" sheetId="2" r:id="rId4"/>
     <sheet name="sample data" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
+    <sheet name="Rs2_gl_pivot" sheetId="7" r:id="rId6"/>
+    <sheet name="rs2_gl_data" sheetId="6" r:id="rId7"/>
+    <sheet name="bnz_post_data" sheetId="8" r:id="rId8"/>
+    <sheet name="bnz_pivot" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">bnz_post_data!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'sample data'!$A$1:$L$46</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Sheet1A1B34" hidden="1">rs2_gl_acct!$A$1:$B$34</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Sheet1A1P51" hidden="1">Sheet1!$A$1:$P$51</definedName>
+    <definedName name="_xlcn.WorksheetConnection_bnz_post_dataA1L461" hidden="1">bnz_post_data!$A$1:$L$46</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet1A1B341" hidden="1">rs2_gl_acct!$A$1:$B$34</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet1A1P511" hidden="1">rs2_gl_data!$A$1:$P$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="48" r:id="rId10"/>
+    <pivotCache cacheId="49" r:id="rId11"/>
+    <pivotCache cacheId="53" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
       <x15:dataModel>
         <x15:modelTables>
+          <x15:modelTable id="Range 1" name="Range 1" connection="WorksheetConnection_Sheet1!$A$1:$P$51"/>
           <x15:modelTable id="Range" name="Range" connection="WorksheetConnection_Sheet1!$A$1:$B$34"/>
-          <x15:modelTable id="Range 1" name="Range 1" connection="WorksheetConnection_Sheet1!$A$1:$P$51"/>
+          <x15:modelTable id="Range 2" name="Range 2" connection="WorksheetConnection_bnz_post_data!$A$1:$L$46"/>
         </x15:modelTables>
       </x15:dataModel>
     </ext>
@@ -66,20 +72,29 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" xr16:uid="{18D235CD-95E5-42EC-B74D-69F2BAC7243B}" name="WorksheetConnection_Sheet1!$A$1:$B$34" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="2" xr16:uid="{CF2B9EE7-C2BD-4C2E-BAC9-C4C9463704D5}" name="WorksheetConnection_bnz_post_data!$A$1:$L$46" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
-        <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1A1B34"/>
+        <x15:connection id="Range 2" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_bnz_post_dataA1L461"/>
         </x15:connection>
       </ext>
     </extLst>
   </connection>
-  <connection id="3" xr16:uid="{21FC20AD-2CA6-4DA7-B8C6-0B5033CCF44A}" name="WorksheetConnection_Sheet1!$A$1:$P$51" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="3" xr16:uid="{18D235CD-95E5-42EC-B74D-69F2BAC7243B}" name="WorksheetConnection_Sheet1!$A$1:$B$34" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Range" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1A1B341"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="4" xr16:uid="{21FC20AD-2CA6-4DA7-B8C6-0B5033CCF44A}" name="WorksheetConnection_Sheet1!$A$1:$P$51" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1A1P51"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1A1P511"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -88,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="245">
   <si>
     <t>rec_type</t>
   </si>
@@ -754,6 +769,75 @@
   </si>
   <si>
     <t>other_acct_config</t>
+  </si>
+  <si>
+    <t>curr_num</t>
+  </si>
+  <si>
+    <t>tran_code</t>
+  </si>
+  <si>
+    <t>tran_amount</t>
+  </si>
+  <si>
+    <t>parti</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>other_acct</t>
+  </si>
+  <si>
+    <t>group_ref</t>
+  </si>
+  <si>
+    <t>111111-45679</t>
+  </si>
+  <si>
+    <t>RS2-GL-DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G01-Net All data </t>
+  </si>
+  <si>
+    <t>345678-45679</t>
+  </si>
+  <si>
+    <t>G02-CR Net Post data</t>
+  </si>
+  <si>
+    <t>111111-11111</t>
+  </si>
+  <si>
+    <t>G03-DR Net Post data</t>
+  </si>
+  <si>
+    <t>999999-99999</t>
+  </si>
+  <si>
+    <t>345679-45679</t>
+  </si>
+  <si>
+    <t>345678-45678</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of tran_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G04-Individual CR posting .. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G05-Individual DR posting .. </t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1372,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1322,6 +1406,16 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1367,7 +1461,91 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="29">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     </dxf>
@@ -1385,7 +1563,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Ganesh Subbanarasimhan" refreshedDate="45519.359024421297" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{CF81B806-74B2-4227-B1BA-FFAB6CE8CE3D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Ganesh Subbanarasimhan" refreshedDate="45522.503896064816" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{CF81B806-74B2-4227-B1BA-FFAB6CE8CE3D}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Range].[gl_acct_number].[gl_acct_number]" caption="gl_acct_number" numFmtId="0" level="1">
@@ -1429,9 +1607,9 @@
         <s v="840"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Count of gl_acct_number]" caption="Count of gl_acct_number" numFmtId="0" hierarchy="21" level="32767"/>
+    <cacheField name="[Measures].[Count of gl_acct_number]" caption="Count of gl_acct_number" numFmtId="0" hierarchy="34" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="25">
+  <cacheHierarchies count="40">
     <cacheHierarchy uniqueName="[Range].[gl_acct_number]" caption="gl_acct_number" attribute="1" defaultMemberUniqueName="[Range].[gl_acct_number].[All]" allUniqueName="[Range].[gl_acct_number].[All]" dimensionUniqueName="[Range]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -1460,8 +1638,21 @@
     <cacheHierarchy uniqueName="[Range 1].[loc_acct_fx_rate_value]" caption="loc_acct_fx_rate_value" attribute="1" defaultMemberUniqueName="[Range 1].[loc_acct_fx_rate_value].[All]" allUniqueName="[Range 1].[loc_acct_fx_rate_value].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 1].[file_number]" caption="file_number" attribute="1" defaultMemberUniqueName="[Range 1].[file_number].[All]" allUniqueName="[Range 1].[file_number].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 1].[id]" caption="id" attribute="1" defaultMemberUniqueName="[Range 1].[id].[All]" allUniqueName="[Range 1].[id].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[record_date]" caption="record_date" attribute="1" defaultMemberUniqueName="[Range 2].[record_date].[All]" allUniqueName="[Range 2].[record_date].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[acct_system]" caption="acct_system" attribute="1" defaultMemberUniqueName="[Range 2].[acct_system].[All]" allUniqueName="[Range 2].[acct_system].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[curr_num]" caption="curr_num" attribute="1" defaultMemberUniqueName="[Range 2].[curr_num].[All]" allUniqueName="[Range 2].[curr_num].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[bnz_acct_number]" caption="bnz_acct_number" attribute="1" defaultMemberUniqueName="[Range 2].[bnz_acct_number].[All]" allUniqueName="[Range 2].[bnz_acct_number].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[tran_code]" caption="tran_code" attribute="1" defaultMemberUniqueName="[Range 2].[tran_code].[All]" allUniqueName="[Range 2].[tran_code].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[tran_amount]" caption="tran_amount" attribute="1" defaultMemberUniqueName="[Range 2].[tran_amount].[All]" allUniqueName="[Range 2].[tran_amount].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[parti]" caption="parti" attribute="1" defaultMemberUniqueName="[Range 2].[parti].[All]" allUniqueName="[Range 2].[parti].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[code]" caption="code" attribute="1" defaultMemberUniqueName="[Range 2].[code].[All]" allUniqueName="[Range 2].[code].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[reference]" caption="reference" attribute="1" defaultMemberUniqueName="[Range 2].[reference].[All]" allUniqueName="[Range 2].[reference].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[other_acct]" caption="other_acct" attribute="1" defaultMemberUniqueName="[Range 2].[other_acct].[All]" allUniqueName="[Range 2].[other_acct].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[group_ref]" caption="group_ref" attribute="1" defaultMemberUniqueName="[Range 2].[group_ref].[All]" allUniqueName="[Range 2].[group_ref].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[id]" caption="id" attribute="1" defaultMemberUniqueName="[Range 2].[id].[All]" allUniqueName="[Range 2].[id].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 2]" caption="__XL_Count Range 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Count of gl_acct_number]" caption="Count of gl_acct_number" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
       <fieldsUsage count="1">
@@ -1494,20 +1685,37 @@
         </ext>
       </extLst>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of tran_code]" caption="Sum of tran_code" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of tran_amount]" caption="Sum of tran_amount" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="3">
+  <dimensions count="4">
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
     <dimension name="Range" uniqueName="[Range]" caption="Range"/>
     <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
+    <dimension name="Range 2" uniqueName="[Range 2]" caption="Range 2"/>
   </dimensions>
-  <measureGroups count="2">
+  <measureGroups count="3">
     <measureGroup name="Range" caption="Range"/>
     <measureGroup name="Range 1" caption="Range 1"/>
+    <measureGroup name="Range 2" caption="Range 2"/>
   </measureGroups>
-  <maps count="2">
+  <maps count="3">
     <map measureGroup="0" dimension="1"/>
     <map measureGroup="1" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1518,7 +1726,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Ganesh Subbanarasimhan" refreshedDate="45520.421443055558" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4FB6F282-61B1-434E-ACDA-7303276BD024}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Ganesh Subbanarasimhan" refreshedDate="45522.503893634261" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4FB6F282-61B1-434E-ACDA-7303276BD024}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
     <cacheField name="[Range 1].[gl_acct_number].[gl_acct_number]" caption="gl_acct_number" numFmtId="0" hierarchy="4" level="1">
@@ -1567,8 +1775,8 @@
         <s v="840"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Sum of loc_amount_value]" caption="Sum of loc_amount_value" numFmtId="0" hierarchy="23" level="32767"/>
-    <cacheField name="[Measures].[Sum of acct_amount_value]" caption="Sum of acct_amount_value" numFmtId="0" hierarchy="24" level="32767"/>
+    <cacheField name="[Measures].[Sum of loc_amount_value]" caption="Sum of loc_amount_value" numFmtId="0" hierarchy="36" level="32767"/>
+    <cacheField name="[Measures].[Sum of acct_amount_value]" caption="Sum of acct_amount_value" numFmtId="0" hierarchy="37" level="32767"/>
     <cacheField name="[Range 1].[file_number].[file_number]" caption="file_number" numFmtId="0" hierarchy="16" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11111111" maxValue="9999999999" count="4">
         <n v="9999999999"/>
@@ -1578,7 +1786,7 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="25">
+  <cacheHierarchies count="40">
     <cacheHierarchy uniqueName="[Range].[gl_acct_number]" caption="gl_acct_number" attribute="1" defaultMemberUniqueName="[Range].[gl_acct_number].[All]" allUniqueName="[Range].[gl_acct_number].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range].[acct_currency]" caption="acct_currency" attribute="1" defaultMemberUniqueName="[Range].[acct_currency].[All]" allUniqueName="[Range].[acct_currency].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 1].[rec_type]" caption="rec_type" attribute="1" defaultMemberUniqueName="[Range 1].[rec_type].[All]" allUniqueName="[Range 1].[rec_type].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1617,8 +1825,21 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Range 1].[id]" caption="id" attribute="1" defaultMemberUniqueName="[Range 1].[id].[All]" allUniqueName="[Range 1].[id].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[record_date]" caption="record_date" attribute="1" defaultMemberUniqueName="[Range 2].[record_date].[All]" allUniqueName="[Range 2].[record_date].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[acct_system]" caption="acct_system" attribute="1" defaultMemberUniqueName="[Range 2].[acct_system].[All]" allUniqueName="[Range 2].[acct_system].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[curr_num]" caption="curr_num" attribute="1" defaultMemberUniqueName="[Range 2].[curr_num].[All]" allUniqueName="[Range 2].[curr_num].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[bnz_acct_number]" caption="bnz_acct_number" attribute="1" defaultMemberUniqueName="[Range 2].[bnz_acct_number].[All]" allUniqueName="[Range 2].[bnz_acct_number].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[tran_code]" caption="tran_code" attribute="1" defaultMemberUniqueName="[Range 2].[tran_code].[All]" allUniqueName="[Range 2].[tran_code].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[tran_amount]" caption="tran_amount" attribute="1" defaultMemberUniqueName="[Range 2].[tran_amount].[All]" allUniqueName="[Range 2].[tran_amount].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[parti]" caption="parti" attribute="1" defaultMemberUniqueName="[Range 2].[parti].[All]" allUniqueName="[Range 2].[parti].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[code]" caption="code" attribute="1" defaultMemberUniqueName="[Range 2].[code].[All]" allUniqueName="[Range 2].[code].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[reference]" caption="reference" attribute="1" defaultMemberUniqueName="[Range 2].[reference].[All]" allUniqueName="[Range 2].[reference].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[other_acct]" caption="other_acct" attribute="1" defaultMemberUniqueName="[Range 2].[other_acct].[All]" allUniqueName="[Range 2].[other_acct].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[group_ref]" caption="group_ref" attribute="1" defaultMemberUniqueName="[Range 2].[group_ref].[All]" allUniqueName="[Range 2].[group_ref].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[id]" caption="id" attribute="1" defaultMemberUniqueName="[Range 2].[id].[All]" allUniqueName="[Range 2].[id].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 2]" caption="__XL_Count Range 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Count of gl_acct_number]" caption="Count of gl_acct_number" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
       <extLst>
@@ -1654,20 +1875,234 @@
         </ext>
       </extLst>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of tran_code]" caption="Sum of tran_code" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of tran_amount]" caption="Sum of tran_amount" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="3">
+  <dimensions count="4">
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
     <dimension name="Range" uniqueName="[Range]" caption="Range"/>
     <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
+    <dimension name="Range 2" uniqueName="[Range 2]" caption="Range 2"/>
   </dimensions>
-  <measureGroups count="2">
+  <measureGroups count="3">
     <measureGroup name="Range" caption="Range"/>
     <measureGroup name="Range 1" caption="Range 1"/>
+    <measureGroup name="Range 2" caption="Range 2"/>
   </measureGroups>
-  <maps count="2">
+  <maps count="3">
     <map measureGroup="0" dimension="1"/>
     <map measureGroup="1" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Ganesh Subbanarasimhan" refreshedDate="45522.512727546295" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{B88F281E-4C0A-4F0E-8D64-0F4AA56E9040}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="5">
+    <cacheField name="[Range 2].[acct_system].[acct_system]" caption="acct_system" numFmtId="0" hierarchy="19" level="1">
+      <sharedItems count="2">
+        <s v="CIF"/>
+        <s v="MIDAS"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Range 2].[curr_num].[curr_num]" caption="curr_num" numFmtId="0" hierarchy="20" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="36" maxValue="978" count="5">
+        <n v="554"/>
+        <n v="36"/>
+        <n v="826"/>
+        <n v="840"/>
+        <n v="978"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[Range 2].[curr_num].&amp;[554]"/>
+            <x15:cachedUniqueName index="1" name="[Range 2].[curr_num].&amp;[36]"/>
+            <x15:cachedUniqueName index="2" name="[Range 2].[curr_num].&amp;[826]"/>
+            <x15:cachedUniqueName index="3" name="[Range 2].[curr_num].&amp;[840]"/>
+            <x15:cachedUniqueName index="4" name="[Range 2].[curr_num].&amp;[978]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+    <cacheField name="[Range 2].[bnz_acct_number].[bnz_acct_number]" caption="bnz_acct_number" numFmtId="0" hierarchy="21" level="1">
+      <sharedItems count="21">
+        <s v="BNZ_DOM_DEAL_CONTROL_DOM"/>
+        <s v="BNZ_DOM_MRCH_SETTLE_NZD"/>
+        <s v="BNZ_DOM_PROC_CTRL_NZD"/>
+        <s v="BNZ_DOM_SCH_CLEARING_DOM"/>
+        <s v="KIWI_DOM_MRCH_SETTLE_NZD"/>
+        <s v="BNZ_FX_DEAL_CONTROL_AUD"/>
+        <s v="BNZ_FX_MRCH_SETTLE_AUD"/>
+        <s v="BNZ_FX_PROC_CTRL_AUD"/>
+        <s v="BNZ_FX_SCH_CLEARING_AUD"/>
+        <s v="BNZ_FX_DEAL_CONTROL_GBP"/>
+        <s v="BNZ_FX_MRCH_SETTLE_GBP"/>
+        <s v="BNZ_FX_PROC_CTRL_GBP"/>
+        <s v="BNZ_FX_SCH_CLEARING_GBP"/>
+        <s v="BNZ_FX_DEAL_CONTROL_USD"/>
+        <s v="BNZ_FX_MRCH_SETTLE_USD"/>
+        <s v="BNZ_FX_PROC_CTRL_USD"/>
+        <s v="BNZ_FX_SCH_CLEARING_USD"/>
+        <s v="BNZ_FX_DEAL_CONTROL_EUR"/>
+        <s v="BNZ_FX_MRCH_SETTLE_EUR"/>
+        <s v="BNZ_FX_PROC_CTRL_EUR"/>
+        <s v="BNZ_FX_SCH_CLEARING_EUR"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Range 2].[tran_code].[tran_code]" caption="tran_code" numFmtId="0" hierarchy="22" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="50" count="2">
+        <n v="0"/>
+        <n v="50"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[Range 2].[tran_code].&amp;[0]"/>
+            <x15:cachedUniqueName index="1" name="[Range 2].[tran_code].&amp;[50]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+    <cacheField name="[Measures].[Sum of tran_amount]" caption="Sum of tran_amount" numFmtId="0" hierarchy="39" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="40">
+    <cacheHierarchy uniqueName="[Range].[gl_acct_number]" caption="gl_acct_number" attribute="1" defaultMemberUniqueName="[Range].[gl_acct_number].[All]" allUniqueName="[Range].[gl_acct_number].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[acct_currency]" caption="acct_currency" attribute="1" defaultMemberUniqueName="[Range].[acct_currency].[All]" allUniqueName="[Range].[acct_currency].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[rec_type]" caption="rec_type" attribute="1" defaultMemberUniqueName="[Range 1].[rec_type].[All]" allUniqueName="[Range 1].[rec_type].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[record_date]" caption="record_date" attribute="1" defaultMemberUniqueName="[Range 1].[record_date].[All]" allUniqueName="[Range 1].[record_date].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[gl_acct_number]" caption="gl_acct_number" attribute="1" defaultMemberUniqueName="[Range 1].[gl_acct_number].[All]" allUniqueName="[Range 1].[gl_acct_number].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[dr_cr]" caption="dr_cr" attribute="1" defaultMemberUniqueName="[Range 1].[dr_cr].[All]" allUniqueName="[Range 1].[dr_cr].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[loc_currency]" caption="loc_currency" attribute="1" defaultMemberUniqueName="[Range 1].[loc_currency].[All]" allUniqueName="[Range 1].[loc_currency].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[loc_amount]" caption="loc_amount" attribute="1" defaultMemberUniqueName="[Range 1].[loc_amount].[All]" allUniqueName="[Range 1].[loc_amount].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[acct_currency]" caption="acct_currency" attribute="1" defaultMemberUniqueName="[Range 1].[acct_currency].[All]" allUniqueName="[Range 1].[acct_currency].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[acct_amount]" caption="acct_amount" attribute="1" defaultMemberUniqueName="[Range 1].[acct_amount].[All]" allUniqueName="[Range 1].[acct_amount].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[loc_acct_fx_rate]" caption="loc_acct_fx_rate" attribute="1" defaultMemberUniqueName="[Range 1].[loc_acct_fx_rate].[All]" allUniqueName="[Range 1].[loc_acct_fx_rate].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[loc_curr_code]" caption="loc_curr_code" attribute="1" defaultMemberUniqueName="[Range 1].[loc_curr_code].[All]" allUniqueName="[Range 1].[loc_curr_code].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[loc_amount_value]" caption="loc_amount_value" attribute="1" defaultMemberUniqueName="[Range 1].[loc_amount_value].[All]" allUniqueName="[Range 1].[loc_amount_value].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[acct_curr_code]" caption="acct_curr_code" attribute="1" defaultMemberUniqueName="[Range 1].[acct_curr_code].[All]" allUniqueName="[Range 1].[acct_curr_code].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[acct_amount_value]" caption="acct_amount_value" attribute="1" defaultMemberUniqueName="[Range 1].[acct_amount_value].[All]" allUniqueName="[Range 1].[acct_amount_value].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[loc_acct_fx_rate_value]" caption="loc_acct_fx_rate_value" attribute="1" defaultMemberUniqueName="[Range 1].[loc_acct_fx_rate_value].[All]" allUniqueName="[Range 1].[loc_acct_fx_rate_value].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[file_number]" caption="file_number" attribute="1" defaultMemberUniqueName="[Range 1].[file_number].[All]" allUniqueName="[Range 1].[file_number].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[id]" caption="id" attribute="1" defaultMemberUniqueName="[Range 1].[id].[All]" allUniqueName="[Range 1].[id].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[record_date]" caption="record_date" attribute="1" defaultMemberUniqueName="[Range 2].[record_date].[All]" allUniqueName="[Range 2].[record_date].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[acct_system]" caption="acct_system" attribute="1" defaultMemberUniqueName="[Range 2].[acct_system].[All]" allUniqueName="[Range 2].[acct_system].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range 2].[curr_num]" caption="curr_num" attribute="1" defaultMemberUniqueName="[Range 2].[curr_num].[All]" allUniqueName="[Range 2].[curr_num].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range 2].[bnz_acct_number]" caption="bnz_acct_number" attribute="1" defaultMemberUniqueName="[Range 2].[bnz_acct_number].[All]" allUniqueName="[Range 2].[bnz_acct_number].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range 2].[tran_code]" caption="tran_code" attribute="1" defaultMemberUniqueName="[Range 2].[tran_code].[All]" allUniqueName="[Range 2].[tran_code].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range 2].[tran_amount]" caption="tran_amount" attribute="1" defaultMemberUniqueName="[Range 2].[tran_amount].[All]" allUniqueName="[Range 2].[tran_amount].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[parti]" caption="parti" attribute="1" defaultMemberUniqueName="[Range 2].[parti].[All]" allUniqueName="[Range 2].[parti].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[code]" caption="code" attribute="1" defaultMemberUniqueName="[Range 2].[code].[All]" allUniqueName="[Range 2].[code].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[reference]" caption="reference" attribute="1" defaultMemberUniqueName="[Range 2].[reference].[All]" allUniqueName="[Range 2].[reference].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[other_acct]" caption="other_acct" attribute="1" defaultMemberUniqueName="[Range 2].[other_acct].[All]" allUniqueName="[Range 2].[other_acct].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[group_ref]" caption="group_ref" attribute="1" defaultMemberUniqueName="[Range 2].[group_ref].[All]" allUniqueName="[Range 2].[group_ref].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[id]" caption="id" attribute="1" defaultMemberUniqueName="[Range 2].[id].[All]" allUniqueName="[Range 2].[id].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 2]" caption="__XL_Count Range 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Count of gl_acct_number]" caption="Count of gl_acct_number" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of acct_amount]" caption="Count of acct_amount" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="9"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of loc_amount_value]" caption="Sum of loc_amount_value" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="12"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of acct_amount_value]" caption="Sum of acct_amount_value" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="14"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of tran_code]" caption="Sum of tran_code" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of tran_amount]" caption="Sum of tran_amount" measure="1" displayFolder="" measureGroup="Range 2" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="4">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
+    <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
+    <dimension name="Range 2" uniqueName="[Range 2]" caption="Range 2"/>
+  </dimensions>
+  <measureGroups count="3">
+    <measureGroup name="Range" caption="Range"/>
+    <measureGroup name="Range 1" caption="Range 1"/>
+    <measureGroup name="Range 2" caption="Range 2"/>
+  </measureGroups>
+  <maps count="3">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1678,7 +2113,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4195729C-9B72-48C1-843F-DB40111A39A4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4195729C-9B72-48C1-843F-DB40111A39A4}" name="PivotTable1" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C33" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1851,7 +2286,19 @@
   <dataFields count="1">
     <dataField name="Count of gl_acct_number" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="25">
+  <pivotHierarchies count="40">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -1873,6 +2320,9 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -1900,7 +2350,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6503668-6D83-48BA-AD6C-905D06D8D309}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6503668-6D83-48BA-AD6C-905D06D8D309}" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:E56" firstHeaderRow="1" firstDataRow="3" firstDataCol="3"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -2205,7 +2655,7 @@
     <dataField name="Sum of acct_amount_value" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="28">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0" selected="0"/>
@@ -2214,7 +2664,19 @@
       </pivotArea>
     </format>
   </formats>
-  <pivotHierarchies count="25">
+  <pivotHierarchies count="40">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -2236,6 +2698,9 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -2258,6 +2723,260 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
       <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Sheet1!$A$1:$P$51">
         <x15:activeTabTopLevelEntity name="[Range 1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4EFE7DFD-2E34-4FD2-B329-94F11C6C64CF}" name="PivotTable2" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="29">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="20"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of tran_amount" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="27">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotHierarchies count="40">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="3">
+    <rowHierarchyUsage hierarchyUsage="19"/>
+    <rowHierarchyUsage hierarchyUsage="20"/>
+    <rowHierarchyUsage hierarchyUsage="21"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="22"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_bnz_post_data!$A$1:$L$46">
+        <x15:activeTabTopLevelEntity name="[Range 2]"/>
       </x15:pivotTableUISettings>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
@@ -3673,11 +4392,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EFCF75-08D0-486D-BD9E-E00C7B81C07F}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8800,10 +9519,10 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:P51"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11378,4 +12097,2219 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE5F94A-829C-4907-A86F-01802FE09196}">
+  <dimension ref="A1:L79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K45" sqref="K45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20240802</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>554</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2">
+        <v>20240802</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20240802</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2">
+        <v>234234.57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3">
+        <v>20240802</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20240802</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4">
+        <v>554</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="17">
+        <v>400000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4">
+        <v>20240802</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20240802</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>554</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>284065.73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5">
+        <v>20240802</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>234</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20240802</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6">
+        <v>826</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>187982.72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6">
+        <v>20240802</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>234</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>20240802</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7">
+        <v>978</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>238618</v>
+      </c>
+      <c r="G7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7">
+        <v>20240802</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20240802</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>-234234.57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8">
+        <v>20240802</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>236</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20240802</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9">
+        <v>826</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-187982.72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9">
+        <v>20240802</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
+        <v>236</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>20240802</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <v>840</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-183123.74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10">
+        <v>20240802</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s">
+        <v>236</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20240802</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11">
+        <v>978</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-238618</v>
+      </c>
+      <c r="G11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11">
+        <v>20240802</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>236</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20240802</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12" s="17">
+        <v>3071.07</v>
+      </c>
+      <c r="G12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12">
+        <v>20240802</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s">
+        <v>243</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20240802</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13">
+        <v>978</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9134.1299999999992</v>
+      </c>
+      <c r="G13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I13">
+        <v>20240802</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20240802</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>826</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2">
+        <v>15709.89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14">
+        <v>20240802</v>
+      </c>
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
+        <v>243</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20240802</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15">
+        <v>840</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2">
+        <v>28676.25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" t="s">
+        <v>231</v>
+      </c>
+      <c r="I15">
+        <v>20240802</v>
+      </c>
+      <c r="J15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20240802</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16">
+        <v>840</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2">
+        <v>61041.25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16">
+        <v>20240802</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20240802</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17">
+        <v>840</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2">
+        <v>122082.49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17">
+        <v>20240802</v>
+      </c>
+      <c r="J17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" t="s">
+        <v>243</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20240802</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2">
+        <v>234234.57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>235</v>
+      </c>
+      <c r="H18" t="s">
+        <v>231</v>
+      </c>
+      <c r="I18">
+        <v>20240802</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>243</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>20240802</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19">
+        <v>978</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2">
+        <v>238618</v>
+      </c>
+      <c r="G19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H19" t="s">
+        <v>231</v>
+      </c>
+      <c r="I19">
+        <v>20240802</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s">
+        <v>243</v>
+      </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20240802</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>826</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2">
+        <v>187982.72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>235</v>
+      </c>
+      <c r="H20" t="s">
+        <v>231</v>
+      </c>
+      <c r="I20">
+        <v>20240802</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20240802</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21">
+        <v>840</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2">
+        <v>183123.74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" t="s">
+        <v>231</v>
+      </c>
+      <c r="I21">
+        <v>20240802</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20240802</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22">
+        <v>554</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-101806.17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" t="s">
+        <v>231</v>
+      </c>
+      <c r="I22">
+        <v>20240802</v>
+      </c>
+      <c r="J22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s">
+        <v>244</v>
+      </c>
+      <c r="L22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20240802</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>554</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-110264.08</v>
+      </c>
+      <c r="G23" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" t="s">
+        <v>231</v>
+      </c>
+      <c r="I23">
+        <v>20240802</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" t="s">
+        <v>244</v>
+      </c>
+      <c r="L23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20240802</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24">
+        <v>554</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-55132.04</v>
+      </c>
+      <c r="G24" t="s">
+        <v>239</v>
+      </c>
+      <c r="H24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I24">
+        <v>20240802</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" t="s">
+        <v>244</v>
+      </c>
+      <c r="L24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20240802</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25">
+        <v>554</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-51909.16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25" t="s">
+        <v>231</v>
+      </c>
+      <c r="I25">
+        <v>20240802</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" t="s">
+        <v>244</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>20240802</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26">
+        <v>554</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-25954.58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>239</v>
+      </c>
+      <c r="H26" t="s">
+        <v>231</v>
+      </c>
+      <c r="I26">
+        <v>20240802</v>
+      </c>
+      <c r="J26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>20240802</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-140115.01</v>
+      </c>
+      <c r="G27" t="s">
+        <v>238</v>
+      </c>
+      <c r="H27" t="s">
+        <v>231</v>
+      </c>
+      <c r="I27">
+        <v>20240802</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" t="s">
+        <v>244</v>
+      </c>
+      <c r="L27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>20240802</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-70057.5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" t="s">
+        <v>231</v>
+      </c>
+      <c r="I28">
+        <v>20240802</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>20240802</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29">
+        <v>978</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-74813.39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>238</v>
+      </c>
+      <c r="H29" t="s">
+        <v>231</v>
+      </c>
+      <c r="I29">
+        <v>20240802</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20240802</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30">
+        <v>978</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-37406.69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" t="s">
+        <v>231</v>
+      </c>
+      <c r="I30">
+        <v>20240802</v>
+      </c>
+      <c r="J30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>20240802</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31">
+        <v>826</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-71205.83</v>
+      </c>
+      <c r="G31" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" t="s">
+        <v>231</v>
+      </c>
+      <c r="I31">
+        <v>20240802</v>
+      </c>
+      <c r="J31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" t="s">
+        <v>244</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>20240802</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32">
+        <v>826</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-35602.92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>239</v>
+      </c>
+      <c r="H32" t="s">
+        <v>231</v>
+      </c>
+      <c r="I32">
+        <v>20240802</v>
+      </c>
+      <c r="J32" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>20240802</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33">
+        <v>840</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-98521.41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" t="s">
+        <v>231</v>
+      </c>
+      <c r="I33">
+        <v>20240802</v>
+      </c>
+      <c r="J33" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" t="s">
+        <v>244</v>
+      </c>
+      <c r="L33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>20240802</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34">
+        <v>840</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-49260.7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>239</v>
+      </c>
+      <c r="H34" t="s">
+        <v>231</v>
+      </c>
+      <c r="I34">
+        <v>20240802</v>
+      </c>
+      <c r="J34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>20240802</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35">
+        <v>554</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-187492.32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" t="s">
+        <v>231</v>
+      </c>
+      <c r="I35">
+        <v>20240802</v>
+      </c>
+      <c r="J35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>20240802</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36">
+        <v>554</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-93746.16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>239</v>
+      </c>
+      <c r="H36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I36">
+        <v>20240802</v>
+      </c>
+      <c r="J36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" t="s">
+        <v>244</v>
+      </c>
+      <c r="L36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>20240802</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37">
+        <v>554</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-38507.480000000003</v>
+      </c>
+      <c r="G37" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" t="s">
+        <v>231</v>
+      </c>
+      <c r="I37">
+        <v>20240802</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>244</v>
+      </c>
+      <c r="L37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>20240802</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38">
+        <v>554</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-19253.740000000002</v>
+      </c>
+      <c r="G38" t="s">
+        <v>239</v>
+      </c>
+      <c r="H38" t="s">
+        <v>231</v>
+      </c>
+      <c r="I38">
+        <v>20240802</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>244</v>
+      </c>
+      <c r="L38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>20240802</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-18088.75</v>
+      </c>
+      <c r="G39" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" t="s">
+        <v>231</v>
+      </c>
+      <c r="I39">
+        <v>20240802</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>20240802</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-9044.3799999999992</v>
+      </c>
+      <c r="G40" t="s">
+        <v>239</v>
+      </c>
+      <c r="H40" t="s">
+        <v>231</v>
+      </c>
+      <c r="I40">
+        <v>20240802</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s">
+        <v>244</v>
+      </c>
+      <c r="L40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>20240802</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41">
+        <v>978</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-90354.7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" t="s">
+        <v>231</v>
+      </c>
+      <c r="I41">
+        <v>20240802</v>
+      </c>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" t="s">
+        <v>244</v>
+      </c>
+      <c r="L41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>20240802</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42">
+        <v>978</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-45177.35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>239</v>
+      </c>
+      <c r="H42" t="s">
+        <v>231</v>
+      </c>
+      <c r="I42">
+        <v>20240802</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>244</v>
+      </c>
+      <c r="L42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>20240802</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43">
+        <v>826</v>
+      </c>
+      <c r="D43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
+        <v>-64589.24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>238</v>
+      </c>
+      <c r="H43" t="s">
+        <v>231</v>
+      </c>
+      <c r="I43">
+        <v>20240802</v>
+      </c>
+      <c r="J43" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" t="s">
+        <v>244</v>
+      </c>
+      <c r="L43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>20240802</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44">
+        <v>826</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-32294.62</v>
+      </c>
+      <c r="G44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H44" t="s">
+        <v>231</v>
+      </c>
+      <c r="I44">
+        <v>20240802</v>
+      </c>
+      <c r="J44" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" t="s">
+        <v>244</v>
+      </c>
+      <c r="L44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>20240802</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45">
+        <v>840</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-42678.59</v>
+      </c>
+      <c r="G45" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" t="s">
+        <v>231</v>
+      </c>
+      <c r="I45">
+        <v>20240802</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" t="s">
+        <v>244</v>
+      </c>
+      <c r="L45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>20240802</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46">
+        <v>840</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>-21339.29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>239</v>
+      </c>
+      <c r="H46" t="s">
+        <v>231</v>
+      </c>
+      <c r="I46">
+        <v>20240802</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>244</v>
+      </c>
+      <c r="L46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F79" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1290FC-41F7-4EF1-9F85-E7B010589514}">
+  <dimension ref="A2:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>50</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="16">
+        <v>-101806.17</v>
+      </c>
+      <c r="D6" s="16">
+        <v>-101806.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="16">
+        <v>400000</v>
+      </c>
+      <c r="D7" s="16">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="16">
+        <v>-582259.56000000006</v>
+      </c>
+      <c r="D9" s="16">
+        <v>-582259.56000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="16">
+        <v>284065.73</v>
+      </c>
+      <c r="D10" s="16">
+        <v>284065.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3071.07</v>
+      </c>
+      <c r="D13" s="16">
+        <v>3071.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="16">
+        <v>234234.57</v>
+      </c>
+      <c r="D14" s="16">
+        <v>234234.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="16">
+        <v>-234234.57</v>
+      </c>
+      <c r="C15" s="16">
+        <v>234234.57</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="16">
+        <v>-237305.64</v>
+      </c>
+      <c r="D16" s="16">
+        <v>-237305.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="16">
+        <v>15709.89</v>
+      </c>
+      <c r="D18" s="16">
+        <v>15709.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="16">
+        <v>187982.72</v>
+      </c>
+      <c r="D19" s="16">
+        <v>187982.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="16">
+        <v>-187982.72</v>
+      </c>
+      <c r="C20" s="16">
+        <v>187982.72</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="16">
+        <v>-203692.61</v>
+      </c>
+      <c r="D21" s="16">
+        <v>-203692.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="16">
+        <v>28676.25</v>
+      </c>
+      <c r="D23" s="16">
+        <v>28676.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="16">
+        <v>183123.74</v>
+      </c>
+      <c r="D24" s="16">
+        <v>183123.74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="16">
+        <v>-183123.74</v>
+      </c>
+      <c r="C25" s="16">
+        <v>183123.74</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="16">
+        <v>-211799.99</v>
+      </c>
+      <c r="D26" s="16">
+        <v>-211799.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="16">
+        <v>9134.1299999999992</v>
+      </c>
+      <c r="D28" s="16">
+        <v>9134.1299999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="16">
+        <v>238618</v>
+      </c>
+      <c r="D29" s="16">
+        <v>238618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="16">
+        <v>-238618</v>
+      </c>
+      <c r="C30" s="16">
+        <v>238618</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="16">
+        <v>-247752.13</v>
+      </c>
+      <c r="D31" s="16">
+        <v>-247752.13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="16">
+        <v>-2428575.13</v>
+      </c>
+      <c r="C32" s="16">
+        <v>2428575.13</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>